--- a/Database.xlsx
+++ b/Database.xlsx
@@ -342,7 +342,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4" outlineLevelCol="0"/>
   <cols>
     <col width="30.5" customWidth="1" style="1" min="2" max="2"/>
   </cols>
@@ -359,10 +359,52 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">1번 늘푸른솔약국 / 주소:서울특별시 중랑구 겸재로 178 (면목동)
-2번 수약국 / 주소:서울특별시 중랑구 신내로 82, 1층 (신내동, 금강프라자)
-3번 종로태평양약국 / 주소:서울특별시 중랑구 동일로 917 (묵동)
-4번 365프라자약국 / 주소:서울특별시 중랑구 공릉로 63, 1층 (묵동)
+          <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지)
+2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩)
+3번 세븐약국 / 주소:서울특별시 서초구 서초대로 250, 703호 (서초동, 스타갤러리브릿지)
+4번 밝은약국 / 주소:서울특별시 서초구 사평대로56길 7, 106호 (서초동, 서초한일유앤아이주상복합)
+5번 서래약국 / 주소:서울특별시 서초구 방배로 234, 1층 (방배동, 아이투비빌딩)
+6번 한신메디칼약국 / 주소:서울특별시 서초구 잠원로 94 (잠원동)
+7번 장수알파약국 / 주소:서울특별시 서초구 서초중앙로 38 (서초동)
+8번 연세온누리약국 / 주소:서울특별시 서초구 신반포로 177, 1층 11호 (잠원동, 반포쇼핑)
+9번 교대사랑약국 / 주소:서울특별시 서초구 서초대로 341, 102호 (서초동)
+10번 사랑의약국 / 주소:서울특별시 서초구 신반포로 165, 2동 1층 (잠원동, 반포쇼핑타운)
+11번 한 약국 / 주소:서울특별시 서초구 강남대로 545-4, 1층 (반포동)
+12번 세계로 약국 / 주소:서울특별시 서초구 동작대로 38 (방배동)
+13번 빛샘온누리약국 / 주소:서울특별시 서초구 서초대로 331, 1층 (서초동)
+14번 메디케어 약국 / 주소:서울특별시 서초구 신반포로 157, 405호 (잠원동)
+15번 하나약국 / 주소:서울특별시 서초구 법원로2길 23, 101호 (서초동, 한성빌딩 )
+16번 서광약국 / 주소:서울특별시 서초구 남부순환로315길 104 (서초동)
+17번 성지약국 / 주소:서울특별시 서초구 방배로 270, 3호 (방배동, 방배삼호아파트)
+18번 메디팜동양약국 / 주소:서울특별시 서초구 사임당로 157, 504호 (서초동, 우성아파트)
+19번 수현온누리약국 / 주소:서울특별시 서초구 서초대로 310, 지하층 (서초동, 소망빌딩)
+20번 등불약국 / 주소:서울특별시 서초구 명달로 92 (서초동)
+21번 한결약국 / 주소:서울특별시 서초구 바우뫼로7길 8, 4층 (우면동, 세신우면상가)
+22번 에이티약국 / 주소:서울특별시 서초구 강남대로 27, 지하1층 (양재동, at센터)
+23번 나성온누리약국 / 주소:서울특별시 서초구 효령로 401, 1층 (서초동, 무지개종합상가)
+24번 주앙약국 / 주소:서울특별시 서초구 방배로 27, 1층 (방배동, 경남상가)
+25번 자이프라자약국 / 주소:서울특별시 서초구 잠원로 24 (반포동, 자이프라자 상가)
+26번 홈케어방배약국 / 주소:서울특별시 서초구 서초대로 24 (방배동)
+27번 고명약국 / 주소:서울특별시 서초구 바우뫼로 23, 101호 (우면동, 선일상가)
+28번 다사랑약국 / 주소:서울특별시 서초구 서초대로74길 11, 지하2층 (서초동, 삼성전자)
+29번 서초로하스약국 / 주소:서울특별시 서초구 서초중앙로 39, 1층 (서초동, 장수빌딩)
+30번 에덴셀스마트약국 / 주소:서울특별시 서초구 매헌로 16, 2198호 (양재동,하이브랜드패션관)
+31번 에이스온누리약구 / 주소:서울특별시 서초구 방배로 76, 1층 (방배동)
+32번 미소약국 / 주소:서울특별시 서초구 서운로 39 (서초동)
+33번 기린약국 / 주소:서울특별시 서초구 잠원로 24, 1층 (반포동, 반포자이프라자)
+34번 서초당약국 / 주소:서울특별시 서초구 서초중앙로 107, 101호 (서초동, 삼화빌딩)
+35번 금화온누리약국 / 주소:서울특별시 서초구 반포대로 287, 125호 (반포동, 래미안퍼스티지 중심상가)
+36번 아주약국 / 주소:서울특별시 서초구 신반포로 22, H동 33호 (반포동, 반포상가)
+37번 스마일약국 / 주소:서울특별시 서초구 동작대로 132 (방배동)
+38번 서초늘푸른약국 / 주소:서울특별시 서초구 잠원로8길 25, 117호 (잠원동, 대림상가)
+39번 서초백화점약국 / 주소:서울특별시 서초구 효령로 279 (서초동)
+40번 다보약국 / 주소:서울특별시 서초구 반포대로19길 21 (서초동)
+41번 굿약국 / 주소:서울특별시 서초구 서초대로77길 24, 103호 (서초동, 강남 지웰타워2)
+42번 스마트온누리약국 / 주소:서울특별시 서초구 서초대로78길 36 (서초동, 강남지웰타워)
+43번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 203호 (내곡동, 서초 포레스타 2단지 상가)
+44번 365온누리약국 / 주소:서울특별시 서초구 방배로 209, 1층 (방배동)
+45번 더블유스토어 하이약국 / 주소:서울특별시 서초구 사임당로 39 (서초동, 한성빌딩)
+46번 스마트온누리약국 / 주소:서울특별시 서초구 강남대로53길 7, 강남애니타워 101호 (서초동)
 </t>
         </is>
       </c>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -363,48 +363,17 @@
 2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩)
 3번 세븐약국 / 주소:서울특별시 서초구 서초대로 250, 703호 (서초동, 스타갤러리브릿지)
 4번 밝은약국 / 주소:서울특별시 서초구 사평대로56길 7, 106호 (서초동, 서초한일유앤아이주상복합)
-5번 서래약국 / 주소:서울특별시 서초구 방배로 234, 1층 (방배동, 아이투비빌딩)
-6번 한신메디칼약국 / 주소:서울특별시 서초구 잠원로 94 (잠원동)
-7번 장수알파약국 / 주소:서울특별시 서초구 서초중앙로 38 (서초동)
-8번 연세온누리약국 / 주소:서울특별시 서초구 신반포로 177, 1층 11호 (잠원동, 반포쇼핑)
-9번 교대사랑약국 / 주소:서울특별시 서초구 서초대로 341, 102호 (서초동)
-10번 사랑의약국 / 주소:서울특별시 서초구 신반포로 165, 2동 1층 (잠원동, 반포쇼핑타운)
-11번 한 약국 / 주소:서울특별시 서초구 강남대로 545-4, 1층 (반포동)
-12번 세계로 약국 / 주소:서울특별시 서초구 동작대로 38 (방배동)
-13번 빛샘온누리약국 / 주소:서울특별시 서초구 서초대로 331, 1층 (서초동)
-14번 메디케어 약국 / 주소:서울특별시 서초구 신반포로 157, 405호 (잠원동)
-15번 하나약국 / 주소:서울특별시 서초구 법원로2길 23, 101호 (서초동, 한성빌딩 )
-16번 서광약국 / 주소:서울특별시 서초구 남부순환로315길 104 (서초동)
-17번 성지약국 / 주소:서울특별시 서초구 방배로 270, 3호 (방배동, 방배삼호아파트)
-18번 메디팜동양약국 / 주소:서울특별시 서초구 사임당로 157, 504호 (서초동, 우성아파트)
-19번 수현온누리약국 / 주소:서울특별시 서초구 서초대로 310, 지하층 (서초동, 소망빌딩)
-20번 등불약국 / 주소:서울특별시 서초구 명달로 92 (서초동)
-21번 한결약국 / 주소:서울특별시 서초구 바우뫼로7길 8, 4층 (우면동, 세신우면상가)
-22번 에이티약국 / 주소:서울특별시 서초구 강남대로 27, 지하1층 (양재동, at센터)
-23번 나성온누리약국 / 주소:서울특별시 서초구 효령로 401, 1층 (서초동, 무지개종합상가)
-24번 주앙약국 / 주소:서울특별시 서초구 방배로 27, 1층 (방배동, 경남상가)
-25번 자이프라자약국 / 주소:서울특별시 서초구 잠원로 24 (반포동, 자이프라자 상가)
-26번 홈케어방배약국 / 주소:서울특별시 서초구 서초대로 24 (방배동)
-27번 고명약국 / 주소:서울특별시 서초구 바우뫼로 23, 101호 (우면동, 선일상가)
-28번 다사랑약국 / 주소:서울특별시 서초구 서초대로74길 11, 지하2층 (서초동, 삼성전자)
-29번 서초로하스약국 / 주소:서울특별시 서초구 서초중앙로 39, 1층 (서초동, 장수빌딩)
-30번 에덴셀스마트약국 / 주소:서울특별시 서초구 매헌로 16, 2198호 (양재동,하이브랜드패션관)
-31번 에이스온누리약구 / 주소:서울특별시 서초구 방배로 76, 1층 (방배동)
-32번 미소약국 / 주소:서울특별시 서초구 서운로 39 (서초동)
-33번 기린약국 / 주소:서울특별시 서초구 잠원로 24, 1층 (반포동, 반포자이프라자)
-34번 서초당약국 / 주소:서울특별시 서초구 서초중앙로 107, 101호 (서초동, 삼화빌딩)
-35번 금화온누리약국 / 주소:서울특별시 서초구 반포대로 287, 125호 (반포동, 래미안퍼스티지 중심상가)
-36번 아주약국 / 주소:서울특별시 서초구 신반포로 22, H동 33호 (반포동, 반포상가)
-37번 스마일약국 / 주소:서울특별시 서초구 동작대로 132 (방배동)
-38번 서초늘푸른약국 / 주소:서울특별시 서초구 잠원로8길 25, 117호 (잠원동, 대림상가)
-39번 서초백화점약국 / 주소:서울특별시 서초구 효령로 279 (서초동)
-40번 다보약국 / 주소:서울특별시 서초구 반포대로19길 21 (서초동)
-41번 굿약국 / 주소:서울특별시 서초구 서초대로77길 24, 103호 (서초동, 강남 지웰타워2)
-42번 스마트온누리약국 / 주소:서울특별시 서초구 서초대로78길 36 (서초동, 강남지웰타워)
-43번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 203호 (내곡동, 서초 포레스타 2단지 상가)
-44번 365온누리약국 / 주소:서울특별시 서초구 방배로 209, 1층 (방배동)
-45번 더블유스토어 하이약국 / 주소:서울특별시 서초구 사임당로 39 (서초동, 한성빌딩)
-46번 스마트온누리약국 / 주소:서울특별시 서초구 강남대로53길 7, 강남애니타워 101호 (서초동)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지) / 전화번호:02-575-0112 / 인허가일자:20170712 / 인허가번호:321000001120170003
+2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩) / 전화번호:02-537-9286 / 인허가일자:20151002 / 인허가번호:321000001120150004
+3번 세븐약국 / 주소:서울특별시 서초구 서초대로 250, 703호 (서초동, 스타갤러리브릿지) / 전화번호:02-598-7753 / 인허가일자:20160610 / 인허가번호:321000001120160007
+4번 밝은약국 / 주소:서울특별시 서초구 사평대로56길 7, 106호 (서초동, 서초한일유앤아이주상복합) / 전화번호:02-535-1912 / 인허가일자:20160610 / 인허가번호:321000001120160008
 </t>
         </is>
       </c>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1176" yWindow="1848" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fv" sheetId="1" state="visible" r:id="rId1"/>
@@ -336,10 +336,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4" outlineLevelCol="0"/>
@@ -347,17 +347,8 @@
     <col width="30.5" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1번 중앙약국 / 주소:서울특별시 노원구 상계로27길 32, 1층 (상계동)
-2번 EWHA우리약국 / 주소:서울특별시 노원구 동일로 1044, 1층 (공릉동)
-</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지)
 2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩)
@@ -368,7 +359,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지) / 전화번호:02-575-0112 / 인허가일자:20170712 / 인허가번호:321000001120170003
 2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩) / 전화번호:02-537-9286 / 인허가일자:20151002 / 인허가번호:321000001120150004

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,44 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EJ\Desktop\chikorita\SBA\pet_pharmacy_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25C457D-C411-49A2-9DCF-CCDD5E689BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1176" yWindow="1848" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fv" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="자판기" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="여기는 시트의 이름1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="여기는 시트의 이름" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="fv" sheetId="1" r:id="rId1"/>
+    <sheet name="자판기" sheetId="2" r:id="rId2"/>
+    <sheet name="여기는 시트의 이름1" sheetId="3" r:id="rId3"/>
+    <sheet name="여기는 시트의 이름" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지)
+2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩)
+3번 세븐약국 / 주소:서울특별시 서초구 서초대로 250, 703호 (서초동, 스타갤러리브릿지)
+4번 밝은약국 / 주소:서울특별시 서초구 사평대로56길 7, 106호 (서초동, 서초한일유앤아이주상복합)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지) / 전화번호:02-575-0112 / 인허가일자:20170712 / 인허가번호:321000001120170003
+2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩) / 전화번호:02-537-9286 / 인허가일자:20151002 / 인허가번호:321000001120150004
+3번 세븐약국 / 주소:서울특별시 서초구 서초대로 250, 703호 (서초동, 스타갤러리브릿지) / 전화번호:02-598-7753 / 인허가일자:20160610 / 인허가번호:321000001120160007
+4번 밝은약국 / 주소:서울특별시 서초구 사평대로56길 7, 106호 (서초동, 서초한일유앤아이주상복합) / 전화번호:02-535-1912 / 인허가일자:20160610 / 인허가번호:321000001120160008
+</t>
+  </si>
+  <si>
+    <t>동물 등록 미이행</t>
+  </si>
+  <si>
+    <t>배설물 수거 미이행</t>
+  </si>
+  <si>
+    <t>목줄 미착용</t>
+  </si>
+  <si>
+    <t>맹견 입마개 미착용</t>
+  </si>
+  <si>
+    <t>목줄 안한 강아지 신고</t>
+  </si>
+  <si>
+    <t>1차 20만</t>
+  </si>
+  <si>
+    <t>1차 5만</t>
+  </si>
+  <si>
+    <t>1차 100만</t>
+  </si>
+  <si>
+    <t>신고기관:관할 시,군,구청</t>
+  </si>
+  <si>
+    <t>2차 40만</t>
+  </si>
+  <si>
+    <t>2차 7만</t>
+  </si>
+  <si>
+    <t>2차 30만</t>
+  </si>
+  <si>
+    <t>2차 200만</t>
+  </si>
+  <si>
+    <t xml:space="preserve">국번없이 110 </t>
+  </si>
+  <si>
+    <t>3차 60만</t>
+  </si>
+  <si>
+    <t>3차 10만</t>
+  </si>
+  <si>
+    <t>3차 50만</t>
+  </si>
+  <si>
+    <t>3차 300만</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>매진</t>
+  </si>
+  <si>
+    <t>사이다</t>
+  </si>
+  <si>
+    <t>콜라</t>
+  </si>
+  <si>
+    <t>환타</t>
+  </si>
+  <si>
+    <t>이온음료</t>
+  </si>
+  <si>
+    <t>캔커피</t>
+  </si>
+  <si>
+    <t>___________________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,15 +170,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -331,184 +453,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col width="30.5" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="10" width="15.69921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지)
-2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩)
-3번 세븐약국 / 주소:서울특별시 서초구 서초대로 250, 703호 (서초동, 스타갤러리브릿지)
-4번 밝은약국 / 주소:서울특별시 서초구 사평대로56길 7, 106호 (서초동, 서초한일유앤아이주상복합)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지) / 전화번호:02-575-0112 / 인허가일자:20170712 / 인허가번호:321000001120170003
-2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩) / 전화번호:02-537-9286 / 인허가일자:20151002 / 인허가번호:321000001120150004
-3번 세븐약국 / 주소:서울특별시 서초구 서초대로 250, 703호 (서초동, 스타갤러리브릿지) / 전화번호:02-598-7753 / 인허가일자:20160610 / 인허가번호:321000001120160007
-4번 밝은약국 / 주소:서울특별시 서초구 사평대로56길 7, 106호 (서초동, 서초한일유앤아이주상복합) / 전화번호:02-535-1912 / 인허가일자:20160610 / 인허가번호:321000001120160008
-</t>
-        </is>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>수량</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>가격</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>매진</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>사이다</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>콜라</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>환타</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>800</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>이온음료</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>15000</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>캔커피</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>800</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -350,10 +350,24 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지)
-2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩)
-3번 세븐약국 / 주소:서울특별시 서초구 서초대로 250, 703호 (서초동, 스타갤러리브릿지)
-4번 밝은약국 / 주소:서울특별시 서초구 사평대로56길 7, 106호 (서초동, 서초한일유앤아이주상복합)
+          <t xml:space="preserve">1번 중앙약국 / 주소:서울특별시 노원구 상계로27길 32, 1층 (상계동)
+2번 EWHA우리약국 / 주소:서울특별시 노원구 동일로 1044, 1층 (공릉동)
+3번 새고운약국 / 주소:서울특별시 노원구 동일로 1003 (공릉동)
+4번 올리브약국 / 주소:서울특별시 노원구 동일로203가길 29, 상가동 205,506호 (중계동, 브라운스톤중계)
+5번 공릉다정약국 / 주소:서울특별시 노원구 동일로 1024, 1층 (공릉동, 박현숙소아청소년과)
+6번 씨앤미3층온누리약국 / 주소:서울특별시 노원구 동일로204가길 34, 씨앤미복합빌딩 3층 8호 (중계동)
+7번 미션약국 / 주소:서울특별시 노원구 동일로 1533, 102호 (상계동, 백산빌딩)
+8번 건강약국 / 주소:서울특별시 노원구 화랑로 463 (공릉동, 제일정형외과의원)
+9번 무궁화약국 / 주소:서울특별시 노원구 한글비석로 77, 한성여객(주) 1층 (하계동)
+10번 화랑온누리약국 / 주소:서울특별시 노원구 공릉로 150, 1층 (공릉동)
+11번 인덕약국 / 주소:서울특별시 노원구 월계로 370, 희성프라자 1층 (월계동)
+12번 the사랑약국 / 주소:서울특별시 노원구 한글비석로 331, 중계주공3단지 아파트상가   101호 (중계동)
+13번 고려약국 / 주소:서울특별시 노원구 동일로 1382 (상계동)
+14번 동인당약국 / 주소:서울특별시 노원구 덕릉로 662, 상가동동 104호 (중계동, 주공3단지아파트)
+15번 서부약국 / 주소:서울특별시 노원구 동일로 1551, 101,102,107,108호 (상계동, 삼전빌딩)
+16번 노원월계동물약국 / 주소:서울특별시 노원구 월계로45가길 94, 상가동 101호 (월계동, 월계청백4단지아파트)
+17번 건강한약국 / 주소:서울특별시 노원구 석계로9길 25, 1층 (월계동)
+18번 소담약국 / 주소:서울특별시 노원구 상계로1길 14-11 (상계동)
 </t>
         </is>
       </c>
@@ -361,10 +375,24 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">1번 봄약국 / 주소:서울특별시 서초구 헌릉로8길 45, 상가동 2층 203호 (내곡동, 서초포레스타2단지) / 전화번호:02-575-0112 / 인허가일자:20170712 / 인허가번호:321000001120170003
-2번 우리들약국 / 주소:서울특별시 서초구 서초중앙로 230 (반포동, 동화반포프라자빌딩) / 전화번호:02-537-9286 / 인허가일자:20151002 / 인허가번호:321000001120150004
-3번 세븐약국 / 주소:서울특별시 서초구 서초대로 250, 703호 (서초동, 스타갤러리브릿지) / 전화번호:02-598-7753 / 인허가일자:20160610 / 인허가번호:321000001120160007
-4번 밝은약국 / 주소:서울특별시 서초구 사평대로56길 7, 106호 (서초동, 서초한일유앤아이주상복합) / 전화번호:02-535-1912 / 인허가일자:20160610 / 인허가번호:321000001120160008
+          <t xml:space="preserve">1번 중앙약국 / 주소:서울특별시 노원구 상계로27길 32, 1층 (상계동) / 전화번호: / 인허가일자:20160523 / 인허가번호:310000001120160006
+2번 EWHA우리약국 / 주소:서울특별시 노원구 동일로 1044, 1층 (공릉동) / 전화번호: / 인허가일자:20160503 / 인허가번호:310000001120160005
+3번 새고운약국 / 주소:서울특별시 노원구 동일로 1003 (공릉동) / 전화번호:02-973-9286 / 인허가일자:20161116 / 인허가번호:310000001120160007
+4번 올리브약국 / 주소:서울특별시 노원구 동일로203가길 29, 상가동 205,506호 (중계동, 브라운스톤중계) / 전화번호:02-977-8001 / 인허가일자:20170412 / 인허가번호:310000001120170004
+5번 공릉다정약국 / 주소:서울특별시 노원구 동일로 1024, 1층 (공릉동, 박현숙소아청소년과) / 전화번호: / 인허가일자:20170302 / 인허가번호:310000001120170002
+6번 씨앤미3층온누리약국 / 주소:서울특별시 노원구 동일로204가길 34, 씨앤미복합빌딩 3층 8호 (중계동) / 전화번호:02-977-1335 / 인허가일자:20170310 / 인허가번호:310000001120170003
+7번 미션약국 / 주소:서울특별시 노원구 동일로 1533, 102호 (상계동, 백산빌딩) / 전화번호: / 인허가일자:20160411 / 인허가번호:310000001120160003
+8번 건강약국 / 주소:서울특별시 노원구 화랑로 463 (공릉동, 제일정형외과의원) / 전화번호: / 인허가일자:20161208 / 인허가번호:310000001120160008
+9번 무궁화약국 / 주소:서울특별시 노원구 한글비석로 77, 한성여객(주) 1층 (하계동) / 전화번호:971-0072 / 인허가일자:20180501 / 인허가번호:310000001120180005
+10번 화랑온누리약국 / 주소:서울특별시 노원구 공릉로 150, 1층 (공릉동) / 전화번호: / 인허가일자:20180404 / 인허가번호:310000001120180004
+11번 인덕약국 / 주소:서울특별시 노원구 월계로 370, 희성프라자 1층 (월계동) / 전화번호:02-993-6250 / 인허가일자:20180112 / 인허가번호:310000001120180001
+12번 the사랑약국 / 주소:서울특별시 노원구 한글비석로 331, 중계주공3단지 아파트상가   101호 (중계동) / 전화번호:02-933-3678 / 인허가일자:20180123 / 인허가번호:310000001120180002
+13번 고려약국 / 주소:서울특별시 노원구 동일로 1382 (상계동) / 전화번호: / 인허가일자:20171124 / 인허가번호:310000001120170008
+14번 동인당약국 / 주소:서울특별시 노원구 덕릉로 662, 상가동동 104호 (중계동, 주공3단지아파트) / 전화번호: / 인허가일자:20180204 / 인허가번호:310000001120180003
+15번 서부약국 / 주소:서울특별시 노원구 동일로 1551, 101,102,107,108호 (상계동, 삼전빌딩) / 전화번호:02-935-3424 / 인허가일자:20151126 / 인허가번호:310000001120150008
+16번 노원월계동물약국 / 주소:서울특별시 노원구 월계로45가길 94, 상가동 101호 (월계동, 월계청백4단지아파트) / 전화번호:02-542-1572 / 인허가일자:20160406 / 인허가번호:310000001120160002
+17번 건강한약국 / 주소:서울특별시 노원구 석계로9길 25, 1층 (월계동) / 전화번호: / 인허가일자:20170802 / 인허가번호:310000001120170006
+18번 소담약국 / 주소:서울특별시 노원구 상계로1길 14-11 (상계동) / 전화번호: / 인허가일자:20150630 / 인허가번호:310000001120150007
 </t>
         </is>
       </c>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="여기는 시트의 이름" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -56,11 +56,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -336,38 +339,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:A42"/>
+  <dimension ref="A3:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4" outlineLevelCol="0"/>
   <cols>
-    <col width="15.69921875" customWidth="1" style="1" min="1" max="10"/>
+    <col width="24.296875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="29.09765625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="15.69921875" customWidth="1" style="1" min="3" max="10"/>
   </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">1번 중앙약국 / 주소:서울특별시 노원구 상계로27길 32, 1층 (상계동)
-2번 EWHA우리약국 / 주소:서울특별시 노원구 동일로 1044, 1층 (공릉동)
-3번 새고운약국 / 주소:서울특별시 노원구 동일로 1003 (공릉동)
-4번 올리브약국 / 주소:서울특별시 노원구 동일로203가길 29, 상가동 205,506호 (중계동, 브라운스톤중계)
-5번 공릉다정약국 / 주소:서울특별시 노원구 동일로 1024, 1층 (공릉동, 박현숙소아청소년과)
-6번 씨앤미3층온누리약국 / 주소:서울특별시 노원구 동일로204가길 34, 씨앤미복합빌딩 3층 8호 (중계동)
-7번 미션약국 / 주소:서울특별시 노원구 동일로 1533, 102호 (상계동, 백산빌딩)
-8번 건강약국 / 주소:서울특별시 노원구 화랑로 463 (공릉동, 제일정형외과의원)
-9번 무궁화약국 / 주소:서울특별시 노원구 한글비석로 77, 한성여객(주) 1층 (하계동)
-10번 화랑온누리약국 / 주소:서울특별시 노원구 공릉로 150, 1층 (공릉동)
-11번 인덕약국 / 주소:서울특별시 노원구 월계로 370, 희성프라자 1층 (월계동)
-12번 the사랑약국 / 주소:서울특별시 노원구 한글비석로 331, 중계주공3단지 아파트상가   101호 (중계동)
-13번 고려약국 / 주소:서울특별시 노원구 동일로 1382 (상계동)
-14번 동인당약국 / 주소:서울특별시 노원구 덕릉로 662, 상가동동 104호 (중계동, 주공3단지아파트)
-15번 서부약국 / 주소:서울특별시 노원구 동일로 1551, 101,102,107,108호 (상계동, 삼전빌딩)
-16번 노원월계동물약국 / 주소:서울특별시 노원구 월계로45가길 94, 상가동 101호 (월계동, 월계청백4단지아파트)
-17번 건강한약국 / 주소:서울특별시 노원구 석계로9길 25, 1층 (월계동)
-18번 소담약국 / 주소:서울특별시 노원구 상계로1길 14-11 (상계동)
+          <t xml:space="preserve">1번 테헤란약국 / 주소:서울특별시 강남구 테헤란로 337, 1층 (역삼동)
+2번 구인당약국 / 주소:서울특별시 강남구 삼성로 150 (대치동, 한보미도맨션)
+3번 압구정온누리약국 / 주소:서울특별시 강남구 압구정로 164, 105호 (신사동, 아세아빌딩)
+4번 신분당약국 / 주소:서울특별시 강남구 강남대로 지하 396, 23호 (역삼동, 강남역)
+5번 라인약국 / 주소:서울특별시 강남구 역삼로7길 3, 1층 (역삼동)
+6번 천사약국 / 주소:서울특별시 강남구 일원로 95 (일원동, 신영프라자)
+7번 우인온누리약국 / 주소:서울특별시 강남구 일원로 39 (일원동, 대원빌딩)
+8번 강남프라자약국 / 주소:서울특별시 강남구 학동로 323 (논현동, 한미빌딩)
+9번 건강 온누리 약국 / 주소:서울특별시 강남구 논현로 528 (역삼동, 온누리빌딩)
+10번 국송약국 / 주소:서울특별시 강남구 광평로51길 49 (수서동, 주공아파트)
+11번 역삼약국 / 주소:서울특별시 강남구 역삼로 128 (역삼동)
+12번 코스모스약국 / 주소:서울특별시 강남구 강남대로 630 (신사동)
+13번 더블유스토어삼성약국 / 주소:서울특별시 강남구 봉은사로 640 (삼성동)
+14번 강남동물약국 / 주소:서울특별시 강남구 논현로 330 (역삼동)
+15번 중앙약국 / 주소:서울특별시 강남구 선릉로157길 815 (신사동)
+16번 희병약국 / 주소:서울특별시 강남구 봉은사로43길 8 (논현동)
+17번 옵티마양성심약국 / 주소:서울특별시 강남구 압구정로 144 (신사동)
+18번 나리약국 / 주소:서울특별시 강남구 도곡로 442 (대치동)
+19번 독수리약국 / 주소:서울특별시 강남구 일원로 95, 신영프라자 106호 (일원동)
+20번 역삼동물약국 / 주소:서울특별시 강남구 논현로 327 (역삼동)
+21번 한티약국 / 주소:서울특별시 강남구 선릉로 225 (도곡동)
+22번 삼성건강약국 / 주소:서울특별시 강남구 선릉로130길 5, 1층 (삼성동)
+23번 압구정스타약국 / 주소:서울특별시 강남구 압구정로 20-15 (신사동)
+24번 해맑은약국 / 주소:서울특별시 강남구 남부순환로363길 13 (도곡동, 백광빌딩)
+25번 대치동동물약국 / 주소:서울특별시 강남구 역삼로77길 23, 1층 (대치동)
+26번 울트라온누리약국 / 주소:서울특별시 강남구 봉은사로 415 (삼성동)
+27번 청담수약국 / 주소:서울특별시 강남구 학동로 423 (청담동)
+28번 유니팜약국 / 주소:서울특별시 강남구 도산대로 415 (청담동)
+29번 정성온누리약국 / 주소:서울특별시 강남구 도곡로 120 (도곡동, 세원빌딩)
+30번 연우약국 / 주소:서울특별시 강남구 도곡로 242, 102호 (도곡동, 삼호상가)
+31번 청담이화약국 / 주소:서울특별시 강남구 선릉로130길 20, 상가동 2층 9호 (삼성동)
+32번 해오름약국 / 주소:서울특별시 강남구 봉은사로73길 5 (삼성동)
+33번 신사프라자약국 / 주소:서울특별시 강남구 도산대로 109, 1층 101호 (신사동)
+34번 테헤란건강약국 / 주소:서울특별시 강남구 선릉로86길 17, 102호 (대치동)
+35번 더블유스토어하이약국 / 주소:서울특별시 강남구 강남대로 364 (역삼동, 1층일부)
+36번 메디팜압구정약국 / 주소:서울특별시 강남구 논현로160길 13, 1층 101호 (신사동)
+37번 역삼동물약국 / 주소:서울특별시 강남구 선릉로107길 4, 1층 (역삼동)
+38번 압구정약국 / 주소:서울특별시 강남구 선릉로 845, 1층 4호 (신사동)
+39번 유한약국 / 주소:서울특별시 강남구 강남대로122길 47 (논현동)
+40번 수진약국 / 주소:서울특별시 강남구 삼성로 150 (대치동, 한보미도맨션)
+41번 수서역정민아약국 / 주소:서울특별시 강남구 광평로56길 8-13, 1층 101호 (수서동, 수서타워)
+42번 라온약국 / 주소:서울특별시 강남구 강남대로 318 (역삼동, TOWER837)
+43번 큰길약국 / 주소:서울특별시 강남구 강남대로 370, 지하1층 (역삼동)
+44번 조은온누리약국 / 주소:서울특별시 강남구 개포로 615, 석탑프라자 3층 304호 (개포동)
+45번 압구정영약국 / 주소:서울특별시 강남구 압구정로28길 25, 1층 (신사동, 엑시)
+46번 이층엔약국 / 주소:서울특별시 강남구 자곡로 201 (자곡동, 강남더샵라르고 210호)
+47번 소호약국 / 주소:서울특별시 강남구 논현로 848, 1층 (신사동)
+48번 강남역동물약국 / 주소:서울특별시 강남구 테헤란로4길 46, 140호 (역삼동, 쌍용플래티넘밸류)
+49번 목화약국 / 주소:서울특별시 강남구 양재대로55길 11, 1층 (일원동)
+50번 강남우리온누리약국 / 주소:서울특별시 강남구 테헤란로 403 (삼성동, 리치타워 101호)
+51번 강남백세약국 / 주소:서울특별시 강남구 도곡로 448 (대치동, 동서빌딩)
+52번 논현천사약국 / 주소:서울특별시 강남구 논현로 604, 태성빌딩 1층 (논현동)
+53번 대치참약국 / 주소:서울특별시 강남구 남부순환로 2927, 대치 클래시아 205호 (대치동)
+54번 더조은약국 / 주소:서울특별시 강남구 자곡로3길 21 (자곡동, B202호 )
+55번 청담케이팜약국 / 주소:서울특별시 강남구 도산대로 333, 1층 (신사동)
+56번 갤러리약국 / 주소:서울특별시 강남구 학동로20길 55, 106호 (논현동, 해림빌딩)
+57번 에메랄드 약국 / 주소:서울특별시 강남구 도산대로 122, 에메랄드타워 1층 (논현동)
+58번 테헤란건강약국 / 주소:서울특별시 강남구 선릉로86길 17, 선릉 MT 빌딩 102호 (대치동)
+59번 초원약국 / 주소:서울특별시 강남구 논현로114길 8 (논현동)
+60번 압구정화이트약국 / 주소:서울특별시 강남구 압구정로30길 23 (신사동, 미승빌딩 1층 102호 )
+61번 한솔인유로 온누리약국 / 주소:서울특별시 강남구 역삼로 310, 2층 25호 (역삼동, 한솔필리아)
+62번 장약국 / 주소:서울특별시 강남구 학동로 224 (논현동, 삼환아르누보 B109호 )
+63번 건강한세상행복한약국 / 주소:서울특별시 강남구 강남대로 488 (논현동, 대남빌딩)
 </t>
         </is>
       </c>
@@ -375,24 +425,69 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">1번 중앙약국 / 주소:서울특별시 노원구 상계로27길 32, 1층 (상계동) / 전화번호: / 인허가일자:20160523 / 인허가번호:310000001120160006
-2번 EWHA우리약국 / 주소:서울특별시 노원구 동일로 1044, 1층 (공릉동) / 전화번호: / 인허가일자:20160503 / 인허가번호:310000001120160005
-3번 새고운약국 / 주소:서울특별시 노원구 동일로 1003 (공릉동) / 전화번호:02-973-9286 / 인허가일자:20161116 / 인허가번호:310000001120160007
-4번 올리브약국 / 주소:서울특별시 노원구 동일로203가길 29, 상가동 205,506호 (중계동, 브라운스톤중계) / 전화번호:02-977-8001 / 인허가일자:20170412 / 인허가번호:310000001120170004
-5번 공릉다정약국 / 주소:서울특별시 노원구 동일로 1024, 1층 (공릉동, 박현숙소아청소년과) / 전화번호: / 인허가일자:20170302 / 인허가번호:310000001120170002
-6번 씨앤미3층온누리약국 / 주소:서울특별시 노원구 동일로204가길 34, 씨앤미복합빌딩 3층 8호 (중계동) / 전화번호:02-977-1335 / 인허가일자:20170310 / 인허가번호:310000001120170003
-7번 미션약국 / 주소:서울특별시 노원구 동일로 1533, 102호 (상계동, 백산빌딩) / 전화번호: / 인허가일자:20160411 / 인허가번호:310000001120160003
-8번 건강약국 / 주소:서울특별시 노원구 화랑로 463 (공릉동, 제일정형외과의원) / 전화번호: / 인허가일자:20161208 / 인허가번호:310000001120160008
-9번 무궁화약국 / 주소:서울특별시 노원구 한글비석로 77, 한성여객(주) 1층 (하계동) / 전화번호:971-0072 / 인허가일자:20180501 / 인허가번호:310000001120180005
-10번 화랑온누리약국 / 주소:서울특별시 노원구 공릉로 150, 1층 (공릉동) / 전화번호: / 인허가일자:20180404 / 인허가번호:310000001120180004
-11번 인덕약국 / 주소:서울특별시 노원구 월계로 370, 희성프라자 1층 (월계동) / 전화번호:02-993-6250 / 인허가일자:20180112 / 인허가번호:310000001120180001
-12번 the사랑약국 / 주소:서울특별시 노원구 한글비석로 331, 중계주공3단지 아파트상가   101호 (중계동) / 전화번호:02-933-3678 / 인허가일자:20180123 / 인허가번호:310000001120180002
-13번 고려약국 / 주소:서울특별시 노원구 동일로 1382 (상계동) / 전화번호: / 인허가일자:20171124 / 인허가번호:310000001120170008
-14번 동인당약국 / 주소:서울특별시 노원구 덕릉로 662, 상가동동 104호 (중계동, 주공3단지아파트) / 전화번호: / 인허가일자:20180204 / 인허가번호:310000001120180003
-15번 서부약국 / 주소:서울특별시 노원구 동일로 1551, 101,102,107,108호 (상계동, 삼전빌딩) / 전화번호:02-935-3424 / 인허가일자:20151126 / 인허가번호:310000001120150008
-16번 노원월계동물약국 / 주소:서울특별시 노원구 월계로45가길 94, 상가동 101호 (월계동, 월계청백4단지아파트) / 전화번호:02-542-1572 / 인허가일자:20160406 / 인허가번호:310000001120160002
-17번 건강한약국 / 주소:서울특별시 노원구 석계로9길 25, 1층 (월계동) / 전화번호: / 인허가일자:20170802 / 인허가번호:310000001120170006
-18번 소담약국 / 주소:서울특별시 노원구 상계로1길 14-11 (상계동) / 전화번호: / 인허가일자:20150630 / 인허가번호:310000001120150007
+          <t xml:space="preserve">1번 테헤란약국 / 주소:서울특별시 강남구 테헤란로 337, 1층 (역삼동) / 전화번호:02-554-1737 / 인허가일자:20160616 / 인허가번호:322000001120160006
+2번 구인당약국 / 주소:서울특별시 강남구 삼성로 150 (대치동, 한보미도맨션) / 전화번호: / 인허가일자:20160823 / 인허가번호:322000001120160011
+3번 압구정온누리약국 / 주소:서울특별시 강남구 압구정로 164, 105호 (신사동, 아세아빌딩) / 전화번호: / 인허가일자:20170410 / 인허가번호:322000001120170002
+4번 신분당약국 / 주소:서울특별시 강남구 강남대로 지하 396, 23호 (역삼동, 강남역) / 전화번호:02-558-0803 / 인허가일자:20170524 / 인허가번호:322000001120170008
+5번 라인약국 / 주소:서울특별시 강남구 역삼로7길 3, 1층 (역삼동) / 전화번호:02-563-8383 / 인허가일자:20170524 / 인허가번호:322000001120170009
+6번 천사약국 / 주소:서울특별시 강남구 일원로 95 (일원동, 신영프라자) / 전화번호:02-459-3702 / 인허가일자:20040830 / 인허가번호:322000001120040027
+7번 우인온누리약국 / 주소:서울특별시 강남구 일원로 39 (일원동, 대원빌딩) / 전화번호:02-2226-7141 / 인허가일자:20041012 / 인허가번호:322000001120040029
+8번 강남프라자약국 / 주소:서울특별시 강남구 학동로 323 (논현동, 한미빌딩) / 전화번호:02-514-4222 / 인허가일자:20041012 / 인허가번호:322000001120040030
+9번 건강 온누리 약국 / 주소:서울특별시 강남구 논현로 528 (역삼동, 온누리빌딩) / 전화번호:02-563-0854 / 인허가일자:20050105 / 인허가번호:322000001120050001
+10번 국송약국 / 주소:서울특별시 강남구 광평로51길 49 (수서동, 주공아파트) / 전화번호: / 인허가일자:20090106 / 인허가번호:322000001120090001
+11번 역삼약국 / 주소:서울특별시 강남구 역삼로 128 (역삼동) / 전화번호:02-555-3877 / 인허가일자:20120223 / 인허가번호:322000001120120001
+12번 코스모스약국 / 주소:서울특별시 강남구 강남대로 630 (신사동) / 전화번호:515-3555 / 인허가일자:20120726 / 인허가번호:322000001120120003
+13번 더블유스토어삼성약국 / 주소:서울특별시 강남구 봉은사로 640 (삼성동) / 전화번호:539-5275 / 인허가일자:20120907 / 인허가번호:322000001120120004
+14번 강남동물약국 / 주소:서울특별시 강남구 논현로 330 (역삼동) / 전화번호:508-3597 / 인허가일자:20130128 / 인허가번호:322000001120130001
+15번 중앙약국 / 주소:서울특별시 강남구 선릉로157길 815 (신사동) / 전화번호:542-6354 / 인허가일자:20130410 / 인허가번호:322000001120130003
+16번 희병약국 / 주소:서울특별시 강남구 봉은사로43길 8 (논현동) / 전화번호:5450429 / 인허가일자:20130417 / 인허가번호:322000001120130004
+17번 옵티마양성심약국 / 주소:서울특별시 강남구 압구정로 144 (신사동) / 전화번호:511-3736 / 인허가일자:20130418 / 인허가번호:322000001120130005
+18번 나리약국 / 주소:서울특별시 강남구 도곡로 442 (대치동) / 전화번호:565-6645 / 인허가일자:20130418 / 인허가번호:322000001120130006
+19번 독수리약국 / 주소:서울특별시 강남구 일원로 95, 신영프라자 106호 (일원동) / 전화번호: / 인허가일자:20130419 / 인허가번호:322000001120130008
+20번 역삼동물약국 / 주소:서울특별시 강남구 논현로 327 (역삼동) / 전화번호:02-564-7582 / 인허가일자:20130502 / 인허가번호:322000001120130009
+21번 한티약국 / 주소:서울특별시 강남구 선릉로 225 (도곡동) / 전화번호:02-574-2575 / 인허가일자:20130527 / 인허가번호:322000001120130011
+22번 삼성건강약국 / 주소:서울특별시 강남구 선릉로130길 5, 1층 (삼성동) / 전화번호: / 인허가일자:20130605 / 인허가번호:322000001120130013
+23번 압구정스타약국 / 주소:서울특별시 강남구 압구정로 20-15 (신사동) / 전화번호: / 인허가일자:20130605 / 인허가번호:322000001120130014
+24번 해맑은약국 / 주소:서울특별시 강남구 남부순환로363길 13 (도곡동, 백광빌딩) / 전화번호:02-571-0029 / 인허가일자:20130607 / 인허가번호:322000001120130015
+25번 대치동동물약국 / 주소:서울특별시 강남구 역삼로77길 23, 1층 (대치동) / 전화번호:02-3453-9557 / 인허가일자:20130607 / 인허가번호:322000001120130016
+26번 울트라온누리약국 / 주소:서울특별시 강남구 봉은사로 415 (삼성동) / 전화번호:02-543-7587 / 인허가일자:20130607 / 인허가번호:322000001120130017
+27번 청담수약국 / 주소:서울특별시 강남구 학동로 423 (청담동) / 전화번호:548-8322 / 인허가일자:20130626 / 인허가번호:322000001120130023
+28번 유니팜약국 / 주소:서울특별시 강남구 도산대로 415 (청담동) / 전화번호:5468707 / 인허가일자:20130626 / 인허가번호:322000001120130024
+29번 정성온누리약국 / 주소:서울특별시 강남구 도곡로 120 (도곡동, 세원빌딩) / 전화번호:554-6979 / 인허가일자:20130801 / 인허가번호:322000001120130033
+30번 연우약국 / 주소:서울특별시 강남구 도곡로 242, 102호 (도곡동, 삼호상가) / 전화번호:557-8672 / 인허가일자:20130809 / 인허가번호:322000001120130036
+31번 청담이화약국 / 주소:서울특별시 강남구 선릉로130길 20, 상가동 2층 9호 (삼성동) / 전화번호:545-2929 / 인허가일자:20130814 / 인허가번호:322000001120130039
+32번 해오름약국 / 주소:서울특별시 강남구 봉은사로73길 5 (삼성동) / 전화번호:545-7617 / 인허가일자:20130924 / 인허가번호:322000001120130043
+33번 신사프라자약국 / 주소:서울특별시 강남구 도산대로 109, 1층 101호 (신사동) / 전화번호:514-3704 / 인허가일자:20130926 / 인허가번호:322000001120130044
+34번 테헤란건강약국 / 주소:서울특별시 강남구 선릉로86길 17, 102호 (대치동) / 전화번호:070-7755-1097 / 인허가일자:20131119 / 인허가번호:322000001120130047
+35번 더블유스토어하이약국 / 주소:서울특별시 강남구 강남대로 364 (역삼동, 1층일부) / 전화번호:7077988275 / 인허가일자:20140404 / 인허가번호:322000001120140001
+36번 메디팜압구정약국 / 주소:서울특별시 강남구 논현로160길 13, 1층 101호 (신사동) / 전화번호:02-547-7585 / 인허가일자:20140519 / 인허가번호:322000001120140004
+37번 역삼동물약국 / 주소:서울특별시 강남구 선릉로107길 4, 1층 (역삼동) / 전화번호: / 인허가일자:20140820 / 인허가번호:322000001120140007
+38번 압구정약국 / 주소:서울특별시 강남구 선릉로 845, 1층 4호 (신사동) / 전화번호:543-0701 / 인허가일자:20141017 / 인허가번호:322000001120140008
+39번 유한약국 / 주소:서울특별시 강남구 강남대로122길 47 (논현동) / 전화번호:02-547-1696 / 인허가일자:20141215 / 인허가번호:322000001120140009
+40번 수진약국 / 주소:서울특별시 강남구 삼성로 150 (대치동, 한보미도맨션) / 전화번호:02-554-4691 / 인허가일자:20160818 / 인허가번호:322000001120160010
+41번 수서역정민아약국 / 주소:서울특별시 강남구 광평로56길 8-13, 1층 101호 (수서동, 수서타워) / 전화번호:02-3412-7655 / 인허가일자:20161124 / 인허가번호:322000001120160014
+42번 라온약국 / 주소:서울특별시 강남구 강남대로 318 (역삼동, TOWER837) / 전화번호: / 인허가일자:20160725 / 인허가번호:322000001120160008
+43번 큰길약국 / 주소:서울특별시 강남구 강남대로 370, 지하1층 (역삼동) / 전화번호: / 인허가일자:20180323 / 인허가번호:322000001120180007
+44번 조은온누리약국 / 주소:서울특별시 강남구 개포로 615, 석탑프라자 3층 304호 (개포동) / 전화번호:02-2226-7671 / 인허가일자:20180503 / 인허가번호:322000001120180008
+45번 압구정영약국 / 주소:서울특별시 강남구 압구정로28길 25, 1층 (신사동, 엑시) / 전화번호: / 인허가일자:20160329 / 인허가번호:322000001120160005
+46번 이층엔약국 / 주소:서울특별시 강남구 자곡로 201 (자곡동, 강남더샵라르고 210호) / 전화번호: / 인허가일자:20170131 / 인허가번호:322000001120170001
+47번 소호약국 / 주소:서울특별시 강남구 논현로 848, 1층 (신사동) / 전화번호:02-352-1561 / 인허가일자:20180102 / 인허가번호:322000001120180001
+48번 강남역동물약국 / 주소:서울특별시 강남구 테헤란로4길 46, 140호 (역삼동, 쌍용플래티넘밸류) / 전화번호:02-557-9480 / 인허가일자:20180214 / 인허가번호:322000001120180003
+49번 목화약국 / 주소:서울특별시 강남구 양재대로55길 11, 1층 (일원동) / 전화번호:02-2226-2268 / 인허가일자:20151208 / 인허가번호:322000001120150008
+50번 강남우리온누리약국 / 주소:서울특별시 강남구 테헤란로 403 (삼성동, 리치타워 101호) / 전화번호:02-565-7940 / 인허가일자:20160217 / 인허가번호:322000001120160002
+51번 강남백세약국 / 주소:서울특별시 강남구 도곡로 448 (대치동, 동서빌딩) / 전화번호:02-566-3138 / 인허가일자:20160323 / 인허가번호:322000001120160004
+52번 논현천사약국 / 주소:서울특별시 강남구 논현로 604, 태성빌딩 1층 (논현동) / 전화번호:541-2953 / 인허가일자:20180223 / 인허가번호:322000001120180005
+53번 대치참약국 / 주소:서울특별시 강남구 남부순환로 2927, 대치 클래시아 205호 (대치동) / 전화번호: / 인허가일자:20180220 / 인허가번호:322000001120180004
+54번 더조은약국 / 주소:서울특별시 강남구 자곡로3길 21 (자곡동, B202호 ) / 전화번호: / 인허가일자:20150716 / 인허가번호:322000001120150004
+55번 청담케이팜약국 / 주소:서울특별시 강남구 도산대로 333, 1층 (신사동) / 전화번호:070-4125-7407 / 인허가일자:20151112 / 인허가번호:322000001120150007
+56번 갤러리약국 / 주소:서울특별시 강남구 학동로20길 55, 106호 (논현동, 해림빌딩) / 전화번호: / 인허가일자:20160112 / 인허가번호:322000001120160001
+57번 에메랄드 약국 / 주소:서울특별시 강남구 도산대로 122, 에메랄드타워 1층 (논현동) / 전화번호: / 인허가일자:20180208 / 인허가번호:322000001120180002
+58번 테헤란건강약국 / 주소:서울특별시 강남구 선릉로86길 17, 선릉 MT 빌딩 102호 (대치동) / 전화번호:02-556-4166 / 인허가일자:20180319 / 인허가번호:322000001120180006
+59번 초원약국 / 주소:서울특별시 강남구 논현로114길 8 (논현동) / 전화번호:02-556-5656 / 인허가일자:20160223 / 인허가번호:322000001120160003
+60번 압구정화이트약국 / 주소:서울특별시 강남구 압구정로30길 23 (신사동, 미승빌딩 1층 102호 ) / 전화번호: / 인허가일자:20170616 / 인허가번호:322000001120170011
+61번 한솔인유로 온누리약국 / 주소:서울특별시 강남구 역삼로 310, 2층 25호 (역삼동, 한솔필리아) / 전화번호:02-3453-8171 / 인허가일자:20170821 / 인허가번호:322000001120170017
+62번 장약국 / 주소:서울특별시 강남구 학동로 224 (논현동, 삼환아르누보 B109호 ) / 전화번호: / 인허가일자:20170707 / 인허가번호:322000001120170012
+63번 건강한세상행복한약국 / 주소:서울특별시 강남구 강남대로 488 (논현동, 대남빌딩) / 전화번호:02-245-0029 / 인허가일자:20170802 / 인허가번호:322000001120170016
 </t>
         </is>
       </c>
@@ -555,6 +650,111 @@
       <c r="A42" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">국번없이 110 </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>&lt;동물등록방법&gt;</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>&lt;반려동물을 잃어버렸어요&gt;</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>&lt;길잃은 동물을 봤어요.&gt;</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>&lt;로드킬 신고는 어디에 하나요?&gt;</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>&lt;동물사체처리는 어떻게 하나요?&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="382.8" customHeight="1" s="1">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">반려의 목적으로 기르는 3개월령 이상인 개는 등록대상입니다. 다음과 같은 등록방법이 있습니다.
+</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+동물보호관리시스템( http://www.animal.go.kr/portal_rnl/abandonment/loss_list.jsp )을 통해 분실 신고를 하면 됩니다. 신고자,품종,성별,분실 날짜,분실장소, 특징 등을 작성하고 필요하면 사진도 첨부합니다.</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>버려진 반려견을 발견했을 때는 관할 시군구청과 해당 유기동물보호시설에 신고하면 됩니다. 
+유기된 동물을 주인 없는 동물이라고 여겨 마음대로 팔거나 죽이면 500만 원 이하의 벌금을 내야 합니다.
+또 동물보호법에 따라 동물 주인이 보호 조치를 알 수 있도록 유기 동물을 보호하고 있다는 사실을 7일 동안 공고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+개인 주거지 외 공공장소나 도로 위에서 고양이나 야생동물 로드킬을 발견하신 경우는 [지역번호+120]으로 전화 신고 해주세요.</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>개인 주거지에서 사체를 발견한 경우는 신고 대신 거주자가 직접 처리를 해야 합니다.
+법적으로 동물의 사체를 처리하는 방법은 
+1. 쓰레기 종량제 봉투에 넣어 내어놓거나,
+2.합법적인 반려동물 장례식장에서 화장하여 보내주는 것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="87" customHeight="1" s="1">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>1. 내장형 무선식별장치 개체 삽입</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+보호중인 동물은 http://www.animal.go.kr/portal_rnl/abandonment/protection_list.jsp 에서 확인 하실 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>2. 외장형 무선식별장치 부착</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>3. 등록인식표 부착</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="55.2" customHeight="1" s="1">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+등록 장소 : 관할 시군구에서 지정한 등록대행기관(동물병원 등)에서 등록
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>등록대행업체리스트는 (http://www.animal.go.kr/portal_rnl/map/record_agency.jsp)를 참고해주세요.</t>
         </is>
       </c>
     </row>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -418,6 +418,19 @@
 61번 한솔인유로 온누리약국 / 주소:서울특별시 강남구 역삼로 310, 2층 25호 (역삼동, 한솔필리아)
 62번 장약국 / 주소:서울특별시 강남구 학동로 224 (논현동, 삼환아르누보 B109호 )
 63번 건강한세상행복한약국 / 주소:서울특별시 강남구 강남대로 488 (논현동, 대남빌딩)
+64번 청담명약국 / 주소:서울특별시 강남구 학동로 501, 5층 (청담동)
+65번 갤러리아온누리약국 / 주소:서울특별시 강남구 선릉로 843 (신사동)
+66번 강남신사동물약국 / 주소:서울특별시 강남구 압구정로54길 5, 103호 (신사동)
+67번 바른약국 / 주소:서울특별시 강남구 도산대로 157, 신웅타워 1층 (신사동)
+68번 제일그랜드약국 / 주소:서울특별시 강남구 강남대로 478 (논현동, 제우빌딩)
+69번 맑은하늘약국 / 주소:서울특별시 강남구 개포로 265, 101호 (개포동, 개포동메디시스빌딩)
+70번 센느약국 / 주소:서울특별시 강남구 테헤란로4길 6, 122호 (역삼동, 강남역센트럴푸르지오시티)
+71번 마리약국 / 주소:서울특별시 강남구 논현로 819 (신사동, 명광빌딩)
+72번 강남퍼스트약국 / 주소:서울특별시 강남구 도산대로 104, 1층 (논현동, 1st Avenue)
+73번 선능약국 / 주소:서울특별시 강남구 봉은사로54길 9, 1층 (역삼동)
+74번 청담비비약국 / 주소:서울특별시 강남구 삼성로 752, 1층 (청담동, 새가정빌딩)
+75번 노바동물약국 / 주소:서울특별시 강남구 강남대로118길 51, 103호 (논현동)
+76번 청담한약국 / 주소:서울특별시 강남구 광평로47길 17 (수서동, 신동아아파트상가 1층 112호 )
 </t>
         </is>
       </c>
@@ -488,6 +501,19 @@
 61번 한솔인유로 온누리약국 / 주소:서울특별시 강남구 역삼로 310, 2층 25호 (역삼동, 한솔필리아) / 전화번호:02-3453-8171 / 인허가일자:20170821 / 인허가번호:322000001120170017
 62번 장약국 / 주소:서울특별시 강남구 학동로 224 (논현동, 삼환아르누보 B109호 ) / 전화번호: / 인허가일자:20170707 / 인허가번호:322000001120170012
 63번 건강한세상행복한약국 / 주소:서울특별시 강남구 강남대로 488 (논현동, 대남빌딩) / 전화번호:02-245-0029 / 인허가일자:20170802 / 인허가번호:322000001120170016
+64번 청담명약국 / 주소:서울특별시 강남구 학동로 501, 5층 (청담동) / 전화번호:02-512-0556 / 인허가일자:20171101 / 인허가번호:322000001120170019
+65번 갤러리아온누리약국 / 주소:서울특별시 강남구 선릉로 843 (신사동) / 전화번호:25170129 / 인허가일자:20150311 / 인허가번호:322000001120150002
+66번 강남신사동물약국 / 주소:서울특별시 강남구 압구정로54길 5, 103호 (신사동) / 전화번호:070-4135-2497 / 인허가일자:20150403 / 인허가번호:322000001120150003
+67번 바른약국 / 주소:서울특별시 강남구 도산대로 157, 신웅타워 1층 (신사동) / 전화번호: / 인허가일자:20171211 / 인허가번호:322000001120170020
+68번 제일그랜드약국 / 주소:서울특별시 강남구 강남대로 478 (논현동, 제우빌딩) / 전화번호:02-546-0093 / 인허가일자:20161012 / 인허가번호:322000001120160012
+69번 맑은하늘약국 / 주소:서울특별시 강남구 개포로 265, 101호 (개포동, 개포동메디시스빌딩) / 전화번호:055-299-0807 / 인허가일자:20170522 / 인허가번호:322000001120170006
+70번 센느약국 / 주소:서울특별시 강남구 테헤란로4길 6, 122호 (역삼동, 강남역센트럴푸르지오시티) / 전화번호: / 인허가일자:20170522 / 인허가번호:322000001120170007
+71번 마리약국 / 주소:서울특별시 강남구 논현로 819 (신사동, 명광빌딩) / 전화번호:02-403-8342 / 인허가일자:20170510 / 인허가번호:322000001120170004
+72번 강남퍼스트약국 / 주소:서울특별시 강남구 도산대로 104, 1층 (논현동, 1st Avenue) / 전화번호: / 인허가일자:20170615 / 인허가번호:322000001120170010
+73번 선능약국 / 주소:서울특별시 강남구 봉은사로54길 9, 1층 (역삼동) / 전화번호:02-555-8475 / 인허가일자:20170717 / 인허가번호:322000001120170013
+74번 청담비비약국 / 주소:서울특별시 강남구 삼성로 752, 1층 (청담동, 새가정빌딩) / 전화번호:02-548-3433 / 인허가일자:20170721 / 인허가번호:322000001120170014
+75번 노바동물약국 / 주소:서울특별시 강남구 강남대로118길 51, 103호 (논현동) / 전화번호:02-542-3696 / 인허가일자:20170721 / 인허가번호:322000001120170015
+76번 청담한약국 / 주소:서울특별시 강남구 광평로47길 17 (수서동, 신동아아파트상가 1층 112호 ) / 전화번호: / 인허가일자:20170929 / 인허가번호:322000001120170018
 </t>
         </is>
       </c>
